--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119926.7511451779</v>
+        <v>21256603.53699201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119926.7511451779</v>
+        <v>21256603.53699201</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39784.14098940705</v>
+        <v>4985294.131939716</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39784.14098940705</v>
+        <v>4985294.131939716</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417740787.776181</v>
+        <v>51816712.81687902</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10988.58452190968</v>
+        <v>1105276.247956094</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21482.49421299938</v>
+        <v>2135660.722868306</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31994.04485800739</v>
+        <v>3165839.511148351</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42496.44805772939</v>
+        <v>4190031.34395509</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52885.80953013328</v>
+        <v>5233778.66067052</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63131.086654338</v>
+        <v>6301560.208326411</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73394.66214972097</v>
+        <v>7383819.307733748</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83573.06334175069</v>
+        <v>8464912.744280906</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94117.28788523428</v>
+        <v>9493858.265603995</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104197.8943876098</v>
+        <v>10600840.95220229</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114095.0993171596</v>
+        <v>11722778.3251733</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>123979.6602869508</v>
+        <v>12843296.18815237</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133839.5247431859</v>
+        <v>13963814.05113149</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144811.2054504439</v>
+        <v>14926300.20148877</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>157037.3355625827</v>
+        <v>15688075.21281196</v>
       </c>
     </row>
   </sheetData>
